--- a/Competitive/EditingDistance.xlsx
+++ b/Competitive/EditingDistance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raziel/Documents/GitHub/AlgorithmsAndMore/Competitive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{972E48CC-6914-C84C-B43F-6FDA01A94F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA67FDEB-E75E-E945-8FB8-3E4B6CD374EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{3A8BCB4D-847F-8046-8C47-E9532AF89F46}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A3:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,34 +464,34 @@
       </c>
       <c r="C4">
         <f>B4+$L$5</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:I4" si="0">C4+$L$5</f>
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -511,33 +511,33 @@
       </c>
       <c r="D5">
         <f xml:space="preserve"> MIN(C4+IF(D$3=$A5,0,$L$6),D4+$L$4,C5+$L$5)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:I5" si="1" xml:space="preserve"> MIN(D4+IF(E$3=$A5,0,$L$6),E4+$L$4,D5+$L$5)</f>
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -558,23 +558,23 @@
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -601,23 +601,23 @@
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>201</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>401</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -638,23 +638,23 @@
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>302</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -675,23 +675,23 @@
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>203</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -712,23 +712,23 @@
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -749,23 +749,23 @@
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -786,23 +786,23 @@
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
